--- a/files/项目组织进度管理系统_画面設計書.xlsx
+++ b/files/项目组织进度管理系统_画面設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="14760"/>
+    <workbookView windowWidth="27900" windowHeight="13840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -27,13 +27,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -52,7 +45,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -74,69 +67,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +106,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,7 +167,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -189,18 +189,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -213,13 +201,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,43 +315,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,49 +339,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,25 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +381,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -402,16 +402,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,17 +434,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,17 +466,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,55 +479,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,91 +536,91 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -701,15 +701,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>126365</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>150495</xdr:rowOff>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
+      <xdr:colOff>348615</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:rowOff>19685</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -718,7 +718,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7442200" y="1430655"/>
+          <a:off x="7441565" y="1429385"/>
           <a:ext cx="7537450" cy="4777740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1236,15 +1236,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>427990</xdr:colOff>
+      <xdr:colOff>427355</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>201295</xdr:rowOff>
+      <xdr:rowOff>200660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
+      <xdr:colOff>564515</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>69215</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1253,7 +1253,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15058390" y="1481455"/>
+          <a:off x="15057755" y="1480820"/>
           <a:ext cx="10500360" cy="4775200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27439,6 +27439,1143 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>21590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1196340" y="875030"/>
+          <a:ext cx="1327150" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>login-01</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>20955</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>189230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>249555</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>193675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="角丸四角形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8555355" y="829310"/>
+          <a:ext cx="2057400" cy="431165"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>membermission-01-00</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-01</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>564515</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>153670</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="角丸四角形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8489315" y="6659880"/>
+          <a:ext cx="2027555" cy="432435"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>missionMgmt-01-00</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>416560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>374015</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>210820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="角丸四角形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16266160" y="845820"/>
+          <a:ext cx="2395855" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>membermission-01-01</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-01</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>210185</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>67945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>408940</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>73660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="角丸四角形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16059785" y="6468745"/>
+          <a:ext cx="2027555" cy="432435"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>missionMgmt-01-01</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>212725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>381635</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="角丸四角形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16032480" y="11947525"/>
+          <a:ext cx="2027555" cy="432435"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>missionMgmt-01-02</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>179705</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>378460</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="角丸四角形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16029305" y="17329785"/>
+          <a:ext cx="2027555" cy="432435"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>missionMgmt-01-03</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -27707,8 +28844,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" topLeftCell="K25" workbookViewId="0">
-      <selection activeCell="AN66" sqref="AN66"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="P28" workbookViewId="0">
+      <selection activeCell="W71" sqref="W71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
